--- a/文档/毕设.xlsx
+++ b/文档/毕设.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB6CB8-8F99-4FB0-A577-60A80DC8D231}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E83B89-F78E-420E-B1B7-9CA11541F407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1740" windowWidth="21600" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>登出，登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货商、零售价格、批发价格、商品条形码、商品分类管理、库存警报、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户退换货信息记录、来回快递单号、客户姓名、手机号、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +462,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,6 +496,9 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -495,6 +506,9 @@
       </c>
       <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
